--- a/Results/Excel/TC03_EditProfile_Result.xlsx
+++ b/Results/Excel/TC03_EditProfile_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F91F1-8A13-410F-A140-B015980CC63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238E5E1-A2C9-4EC4-A7A6-043F27E74F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -548,6 +548,13 @@
       <color rgb="FFFF0000"/>
       <name val="Mic Shell Dlg"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -647,7 +654,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -972,12 +981,12 @@
     <col min="10" max="10" width="46.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="146.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="76" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="176.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="146.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="176.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.453125" style="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="1" customWidth="1"/>
@@ -1083,10 +1092,10 @@
       <c r="N2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q2" s="14" t="s">
@@ -1139,14 +1148,14 @@
       <c r="N3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>37</v>
+      <c r="O3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>38</v>
@@ -1195,14 +1204,14 @@
       <c r="N4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>37</v>
+      <c r="O4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R4" s="14" t="s">
         <v>38</v>
@@ -1251,14 +1260,14 @@
       <c r="N5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>37</v>
+      <c r="O5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R5" s="14" t="s">
         <v>38</v>
@@ -1307,14 +1316,14 @@
       <c r="N6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>37</v>
+      <c r="O6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R6" s="14" t="s">
         <v>38</v>
@@ -1363,10 +1372,10 @@
       <c r="N7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="5" t="s">
+      <c r="O7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q7" s="14" t="s">
@@ -1419,10 +1428,10 @@
       <c r="N8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="O8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="14" t="s">
@@ -1473,10 +1482,10 @@
       <c r="N9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="O9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="14" t="s">
@@ -1529,14 +1538,14 @@
       <c r="N10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>37</v>
+      <c r="O10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R10" s="14" t="s">
         <v>60</v>
@@ -1585,14 +1594,14 @@
       <c r="N11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>37</v>
+      <c r="O11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R11" s="14" t="s">
         <v>60</v>
@@ -1641,14 +1650,14 @@
       <c r="N12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>37</v>
+      <c r="O12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R12" s="14" t="s">
         <v>60</v>
@@ -1697,10 +1706,10 @@
       <c r="N13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="5" t="s">
+      <c r="O13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q13" s="14" t="s">
@@ -1753,10 +1762,10 @@
       <c r="N14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="5" t="s">
+      <c r="O14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q14" s="14" t="s">
@@ -1807,10 +1816,10 @@
       <c r="N15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="5" t="s">
+      <c r="O15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="14" t="s">
@@ -1863,10 +1872,10 @@
       <c r="N16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="5" t="s">
+      <c r="O16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q16" s="14" t="s">
@@ -1919,10 +1928,10 @@
       <c r="N17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="5" t="s">
+      <c r="O17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q17" s="14" t="s">
@@ -1975,10 +1984,10 @@
       <c r="N18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" s="5" t="s">
+      <c r="O18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q18" s="14" t="s">
@@ -2031,10 +2040,10 @@
       <c r="N19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="5" t="s">
+      <c r="O19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q19" s="14" t="s">
@@ -2087,10 +2096,10 @@
       <c r="N20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="5" t="s">
+      <c r="O20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q20" s="14" t="s">
@@ -2141,10 +2150,10 @@
       <c r="N21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="O21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q21" s="14" t="s">
@@ -2197,14 +2206,14 @@
       <c r="N22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>37</v>
+      <c r="O22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R22" s="14" t="s">
         <v>95</v>
@@ -2253,14 +2262,14 @@
       <c r="N23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>37</v>
+      <c r="O23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R23" s="14" t="s">
         <v>95</v>
@@ -2309,14 +2318,14 @@
       <c r="N24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>37</v>
+      <c r="O24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R24" s="14" t="s">
         <v>95</v>
@@ -2365,14 +2374,14 @@
       <c r="N25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>37</v>
+      <c r="O25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R25" s="14" t="s">
         <v>104</v>
@@ -2421,14 +2430,14 @@
       <c r="N26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>37</v>
+      <c r="O26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R26" s="14" t="s">
         <v>104</v>
@@ -2477,10 +2486,10 @@
       <c r="N27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="5" t="s">
+      <c r="O27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q27" s="14" t="s">
@@ -2533,10 +2542,10 @@
       <c r="N28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P28" s="5" t="s">
+      <c r="O28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q28" s="14" t="s">
@@ -2587,10 +2596,10 @@
       <c r="N29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" s="5" t="s">
+      <c r="O29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q29" s="14" t="s">
@@ -2643,14 +2652,14 @@
       <c r="N30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>37</v>
+      <c r="O30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R30" s="14" t="s">
         <v>117</v>
@@ -2699,14 +2708,14 @@
       <c r="N31" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>37</v>
+      <c r="O31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q31" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R31" s="14" t="s">
         <v>117</v>
@@ -2755,14 +2764,14 @@
       <c r="N32" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>37</v>
+      <c r="O32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R32" s="14" t="s">
         <v>117</v>
@@ -2811,14 +2820,14 @@
       <c r="N33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>37</v>
+      <c r="O33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q33" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R33" s="14" t="s">
         <v>117</v>
@@ -2867,14 +2876,14 @@
       <c r="N34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>37</v>
+      <c r="O34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R34" s="14" t="s">
         <v>117</v>
@@ -2923,10 +2932,10 @@
       <c r="N35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="5" t="s">
+      <c r="O35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q35" s="14" t="s">
@@ -2979,10 +2988,10 @@
       <c r="N36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="5" t="s">
+      <c r="O36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q36" s="14" t="s">
@@ -3035,10 +3044,10 @@
       <c r="N37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="5" t="s">
+      <c r="O37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q37" s="4" t="s">
@@ -3091,10 +3100,10 @@
       <c r="N38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="4" t="s">
+      <c r="O38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" s="13" t="s">
         <v>37</v>
       </c>
       <c r="Q38" s="4" t="s">
@@ -3147,10 +3156,10 @@
       <c r="N39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="5" t="s">
+      <c r="O39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" s="8" t="s">
         <v>37</v>
       </c>
       <c r="Q39" s="4" t="s">
@@ -3203,10 +3212,10 @@
       <c r="N40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P40" s="5" t="s">
+      <c r="O40" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q40" s="4" t="s">
@@ -3259,10 +3268,10 @@
       <c r="N41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P41" s="5" t="s">
+      <c r="O41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q41" s="4" t="s">
@@ -3315,10 +3324,10 @@
       <c r="N42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P42" s="5" t="s">
+      <c r="O42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q42" s="4" t="s">
@@ -3370,6 +3379,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/Excel/TC03_EditProfile_Result.xlsx
+++ b/Results/Excel/TC03_EditProfile_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238E5E1-A2C9-4EC4-A7A6-043F27E74F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5E9B0-D26E-45F1-A5BE-F4B616F1A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="155">
   <si>
     <t>TDID</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อต้องเป็นตัวอักษรภาษาไทยหรือภาษาอังกฤษ และห้ามมีช่องว่าง ตัวเลขหรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD3</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>นามสกุลต้องเป็นภาษาไทยหรือภาษาอังกฤษเท่านั้น</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "นามสกุลต้องเป็นตัวอักษรภาษาไทยหรือภาษาอังกฤษ และห้ามมีตัวเลขหรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD10</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
     <t>เบอร์โทรต้องมีจำนวนตัวเลข 10 ตัวเลขเท่านั้น</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เบอร์โทรห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD22</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t>ต้องขึ้นต้นด้วยเลข 0 เท่านั้น และไม่มีช่องว่างหรือตัวอักษรใดๆ แทรกระหว่างตัวเลข</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เบอร์โทรต้องเป็นตัวเลขอารบิก และขึ้นต้นด้วยเลข 06 08 09 เท่านั้น"</t>
-  </si>
-  <si>
     <t>TD25</t>
   </si>
   <si>
@@ -374,9 +362,6 @@
   </si>
   <si>
     <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล ประกอบด้วยตัวอักษรภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ ขีดกลาง - ขีดล่าง _ แอท @ จุด . และห้ามมีช่องว่าง"</t>
   </si>
   <si>
     <t>TD30</t>
@@ -963,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="M23" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -1158,24 +1143,24 @@
         <v>30</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>22</v>
@@ -1214,24 +1199,24 @@
         <v>30</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
@@ -1270,24 +1255,24 @@
         <v>30</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.5" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>22</v>
@@ -1326,24 +1311,24 @@
         <v>30</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.5" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>22</v>
@@ -1367,39 +1352,39 @@
         <v>27</v>
       </c>
       <c r="M7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="O7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>37</v>
+      <c r="P7" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.5" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>22</v>
@@ -1423,10 +1408,10 @@
         <v>27</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>37</v>
@@ -1438,24 +1423,24 @@
         <v>16</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.5" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="5" t="s">
@@ -1477,10 +1462,10 @@
         <v>27</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>29</v>
@@ -1497,22 +1482,22 @@
     </row>
     <row r="10" spans="1:20" ht="15.5" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>23</v>
@@ -1533,10 +1518,10 @@
         <v>27</v>
       </c>
       <c r="M10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>37</v>
@@ -1548,12 +1533,12 @@
         <v>30</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -1565,10 +1550,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>23</v>
@@ -1589,10 +1574,10 @@
         <v>27</v>
       </c>
       <c r="M11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>37</v>
@@ -1604,12 +1589,12 @@
         <v>30</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -1621,10 +1606,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>23</v>
@@ -1645,10 +1630,10 @@
         <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>37</v>
@@ -1660,12 +1645,12 @@
         <v>30</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
@@ -1677,10 +1662,10 @@
         <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>23</v>
@@ -1701,27 +1686,27 @@
         <v>27</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>37</v>
+      <c r="P13" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -1733,10 +1718,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>23</v>
@@ -1757,10 +1742,10 @@
         <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>37</v>
@@ -1772,12 +1757,12 @@
         <v>16</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -1789,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>22</v>
@@ -1811,10 +1796,10 @@
         <v>27</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>29</v>
@@ -1831,7 +1816,7 @@
     </row>
     <row r="16" spans="1:20" ht="15.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -1843,13 +1828,13 @@
         <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>24</v>
@@ -1867,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>37</v>
@@ -1882,12 +1867,12 @@
         <v>16</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -1899,13 +1884,13 @@
         <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>24</v>
@@ -1923,10 +1908,10 @@
         <v>27</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>37</v>
@@ -1938,12 +1923,12 @@
         <v>16</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -1955,13 +1940,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>24</v>
@@ -1979,10 +1964,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>37</v>
@@ -1994,12 +1979,12 @@
         <v>16</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
@@ -2011,13 +1996,13 @@
         <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>24</v>
@@ -2035,10 +2020,10 @@
         <v>27</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>37</v>
@@ -2050,12 +2035,12 @@
         <v>16</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -2067,13 +2052,13 @@
         <v>21</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>24</v>
@@ -2091,27 +2076,27 @@
         <v>27</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>37</v>
+      <c r="P20" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -2123,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>22</v>
@@ -2145,10 +2130,10 @@
         <v>27</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>29</v>
@@ -2165,7 +2150,7 @@
     </row>
     <row r="22" spans="1:18" ht="15.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -2177,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>22</v>
@@ -2186,7 +2171,7 @@
         <v>23</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>25</v>
@@ -2201,10 +2186,10 @@
         <v>27</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>37</v>
@@ -2216,12 +2201,12 @@
         <v>30</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -2233,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>22</v>
@@ -2242,7 +2227,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>34</v>
@@ -2257,10 +2242,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>37</v>
@@ -2272,12 +2257,12 @@
         <v>30</v>
       </c>
       <c r="R23" s="14" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -2289,7 +2274,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>22</v>
@@ -2298,7 +2283,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>25</v>
@@ -2313,10 +2298,10 @@
         <v>27</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>37</v>
@@ -2328,12 +2313,12 @@
         <v>30</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
@@ -2345,7 +2330,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>22</v>
@@ -2354,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>34</v>
@@ -2369,10 +2354,10 @@
         <v>27</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>37</v>
@@ -2384,12 +2369,12 @@
         <v>30</v>
       </c>
       <c r="R25" s="14" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
@@ -2401,7 +2386,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>22</v>
@@ -2410,7 +2395,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>25</v>
@@ -2425,10 +2410,10 @@
         <v>27</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>37</v>
@@ -2440,12 +2425,12 @@
         <v>30</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
@@ -2457,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>22</v>
@@ -2466,7 +2451,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>34</v>
@@ -2481,10 +2466,10 @@
         <v>27</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>29</v>
@@ -2501,7 +2486,7 @@
     </row>
     <row r="28" spans="1:18" ht="15.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
@@ -2513,7 +2498,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>22</v>
@@ -2522,7 +2507,7 @@
         <v>23</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
@@ -2537,10 +2522,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>29</v>
@@ -2557,7 +2542,7 @@
     </row>
     <row r="29" spans="1:18" ht="15.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
@@ -2569,7 +2554,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>22</v>
@@ -2591,10 +2576,10 @@
         <v>27</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O29" s="15" t="s">
         <v>29</v>
@@ -2611,7 +2596,7 @@
     </row>
     <row r="30" spans="1:18" ht="15.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
@@ -2623,7 +2608,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>22</v>
@@ -2638,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>20</v>
@@ -2647,10 +2632,10 @@
         <v>27</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>37</v>
@@ -2662,12 +2647,12 @@
         <v>30</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -2679,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>22</v>
@@ -2694,7 +2679,7 @@
         <v>34</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>20</v>
@@ -2703,10 +2688,10 @@
         <v>27</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>37</v>
@@ -2718,12 +2703,12 @@
         <v>30</v>
       </c>
       <c r="R31" s="14" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
@@ -2735,7 +2720,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>22</v>
@@ -2750,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>20</v>
@@ -2759,10 +2744,10 @@
         <v>27</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>37</v>
@@ -2774,12 +2759,12 @@
         <v>30</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -2791,7 +2776,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>22</v>
@@ -2806,7 +2791,7 @@
         <v>34</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>20</v>
@@ -2815,10 +2800,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>37</v>
@@ -2830,12 +2815,12 @@
         <v>30</v>
       </c>
       <c r="R33" s="14" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>19</v>
@@ -2847,7 +2832,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>22</v>
@@ -2862,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>20</v>
@@ -2871,10 +2856,10 @@
         <v>27</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>37</v>
@@ -2886,12 +2871,12 @@
         <v>30</v>
       </c>
       <c r="R34" s="14" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
@@ -2903,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>22</v>
@@ -2918,7 +2903,7 @@
         <v>34</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>20</v>
@@ -2927,10 +2912,10 @@
         <v>27</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>37</v>
@@ -2942,12 +2927,12 @@
         <v>16</v>
       </c>
       <c r="R35" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -2959,7 +2944,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>22</v>
@@ -2974,7 +2959,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>20</v>
@@ -2983,10 +2968,10 @@
         <v>27</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>37</v>
@@ -2998,12 +2983,12 @@
         <v>16</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>19</v>
@@ -3015,7 +3000,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>22</v>
@@ -3033,16 +3018,16 @@
         <v>26</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>37</v>
@@ -3054,12 +3039,12 @@
         <v>16</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
@@ -3071,7 +3056,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>22</v>
@@ -3092,13 +3077,13 @@
         <v>20</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O38" s="13" t="s">
         <v>37</v>
@@ -3110,12 +3095,12 @@
         <v>16</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -3124,10 +3109,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>22</v>
@@ -3142,19 +3127,19 @@
         <v>34</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>37</v>
@@ -3166,12 +3151,12 @@
         <v>16</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>19</v>
@@ -3180,16 +3165,16 @@
         <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>24</v>
@@ -3204,13 +3189,13 @@
         <v>20</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O40" s="15" t="s">
         <v>29</v>
@@ -3218,16 +3203,16 @@
       <c r="P40" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="R40" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -3236,16 +3221,16 @@
         <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>24</v>
@@ -3254,7 +3239,7 @@
         <v>34</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>20</v>
@@ -3263,10 +3248,10 @@
         <v>27</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O41" s="15" t="s">
         <v>29</v>
@@ -3274,16 +3259,16 @@
       <c r="P41" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="R41" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>19</v>
@@ -3295,13 +3280,13 @@
         <v>21</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>24</v>
@@ -3310,7 +3295,7 @@
         <v>25</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>20</v>
@@ -3319,10 +3304,10 @@
         <v>27</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O42" s="15" t="s">
         <v>29</v>
@@ -3330,10 +3315,10 @@
       <c r="P42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="14" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Results/Excel/TC03_EditProfile_Result.xlsx
+++ b/Results/Excel/TC03_EditProfile_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5E9B0-D26E-45F1-A5BE-F4B616F1A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D48A0C9-34BA-4917-AE04-929AA032AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,325 +169,325 @@
     <t>ชื่อต้องมีจำนวนตัวอักษร 2-32 ตัวอักษรเท่านั้น</t>
   </si>
   <si>
+    <t>TD7</t>
+  </si>
+  <si>
+    <t>บวรทัตบวรทัตบวรทัตบวรทัตบวรทัตบ</t>
+  </si>
+  <si>
+    <t>แก้ไขข้อมูลสำเร็จ</t>
+  </si>
+  <si>
+    <t>TD8</t>
+  </si>
+  <si>
+    <t>ดา</t>
+  </si>
+  <si>
+    <t>กรุณากรอกนามสกุล</t>
+  </si>
+  <si>
+    <t>TD9</t>
+  </si>
+  <si>
+    <t>チャンパトン</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องเป็นตัวอักษรภาษาไทยหรือภาษาอังกฤษ และห้ามมีตัวเลขหรือตัวอักษรพิเศษ</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องเป็นภาษาไทยหรือภาษาอังกฤษเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD10</t>
+  </si>
+  <si>
+    <t>จำปาทอง2</t>
+  </si>
+  <si>
+    <t>TD11</t>
+  </si>
+  <si>
+    <t>จำปาทอง.</t>
+  </si>
+  <si>
+    <t>TD12</t>
+  </si>
+  <si>
+    <t>จ</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องมีจำนวนตัวอักษร 2-30 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องมีจำนวนตัวอักษร 2-32 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD13</t>
+  </si>
+  <si>
+    <t>จำปาทองจำปาทองจำปาทองจำปาทองจำป</t>
+  </si>
+  <si>
+    <t>TD14</t>
+  </si>
+  <si>
+    <t>กรุณากรอกที่อยู่</t>
+  </si>
+  <si>
+    <t>TD15</t>
+  </si>
+  <si>
+    <t>30/9 ムー 10</t>
+  </si>
+  <si>
+    <t>ที่อยู่ต้องเป็นภาษาไทย ภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ วงเล็บ ( ) ขีดกลาง - จุด . สแลช / และคอมม่า , เท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ที่อยู่ต้องเป็นภาษาไทย ภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ วงเล็บ ( ) ขีดกลาง - จุด . สแลช / และคอมม่า , เท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD16</t>
+  </si>
+  <si>
+    <t>๓๐/๑๙</t>
+  </si>
+  <si>
+    <t>TD17</t>
+  </si>
+  <si>
+    <t>30_19</t>
+  </si>
+  <si>
+    <t>TD18</t>
+  </si>
+  <si>
+    <t>30/9</t>
+  </si>
+  <si>
+    <t>ที่อยู่ต้องมีจำนวนตัวอักษร 5-100 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD19</t>
+  </si>
+  <si>
+    <t>30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุรี จ.ราชบุรี รหัสไปรษณีย์ 70000 30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุร</t>
+  </si>
+  <si>
+    <t>ที่อยู่ต้องมีจำนวนตัวอักษร 2-100 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD20</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเบอร์โทร</t>
+  </si>
+  <si>
+    <t>TD21</t>
+  </si>
+  <si>
+    <t>080 843 7940</t>
+  </si>
+  <si>
+    <t>เบอร์โทรห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
+  </si>
+  <si>
+    <t>เบอร์โทรต้องมีจำนวนตัวเลข 10 ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD22</t>
+  </si>
+  <si>
+    <t>Tel0808437940</t>
+  </si>
+  <si>
+    <t>TD23</t>
+  </si>
+  <si>
+    <t>0808437940.</t>
+  </si>
+  <si>
+    <t>TD24</t>
+  </si>
+  <si>
+    <t>๐๘๐๘๔๓๗๙๔๐</t>
+  </si>
+  <si>
+    <t>เบอร์โทรต้องเป็นตัวเลขอารบิก และขึ้นต้นด้วยเลข 06 08 09 เท่านั้น</t>
+  </si>
+  <si>
+    <t>ต้องขึ้นต้นด้วยเลข 0 เท่านั้น และไม่มีช่องว่างหรือตัวอักษรใดๆ แทรกระหว่างตัวเลข</t>
+  </si>
+  <si>
+    <t>TD25</t>
+  </si>
+  <si>
+    <t>0708437940</t>
+  </si>
+  <si>
+    <t>TD26</t>
+  </si>
+  <si>
+    <t>080843794</t>
+  </si>
+  <si>
+    <t>TD27</t>
+  </si>
+  <si>
+    <t>08084379400</t>
+  </si>
+  <si>
+    <t>TD28</t>
+  </si>
+  <si>
+    <t>กรุณากรอกอีเมล</t>
+  </si>
+  <si>
+    <t>TD29</t>
+  </si>
+  <si>
+    <t>bawonthad2612</t>
+  </si>
+  <si>
+    <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล ประกอบด้วยตัวอักษรภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ ขีดกลาง - ขีดล่าง _ แอท @ จุด . และห้ามมีช่องว่าง</t>
+  </si>
+  <si>
+    <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล</t>
+  </si>
+  <si>
+    <t>TD30</t>
+  </si>
+  <si>
+    <t>บวรทัต2612@gmail.com</t>
+  </si>
+  <si>
+    <t>TD31</t>
+  </si>
+  <si>
+    <t>bawonthad๒๖๑๒@gmail.com</t>
+  </si>
+  <si>
+    <t>TD32</t>
+  </si>
+  <si>
+    <t>#bawonthad2612@gmail.com</t>
+  </si>
+  <si>
+    <t>TD33</t>
+  </si>
+  <si>
+    <t>bawonthad2612@gmail. com</t>
+  </si>
+  <si>
+    <t>TD34</t>
+  </si>
+  <si>
+    <t>b@gmail.com</t>
+  </si>
+  <si>
+    <t>อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD35</t>
+  </si>
+  <si>
+    <t>bawonthad2612312312312312312311@gmail.com</t>
+  </si>
+  <si>
+    <t>TD36</t>
+  </si>
+  <si>
+    <t>1549900523700</t>
+  </si>
+  <si>
+    <t>เลขบัตรประชาชนไม่สามารถแก้ไขได้</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขบัตรประชาชนไม่สามารถแก้ไขได้"</t>
+  </si>
+  <si>
+    <t>TD37</t>
+  </si>
+  <si>
+    <t>เลือกปี (ปีปัจจุบัน -11)</t>
+  </si>
+  <si>
+    <t>ไม่สามารถแก้ไขข้อมูลได้ จำเป็นต้องมีอายุตั้งแต่ 12 ปีขึ้นไป</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ไม่สามารถแก้ไขข้อมูลได้ จำเป็นต้องมีอายุตั้งแต่ 12 ปีขึ้นไป"</t>
+  </si>
+  <si>
+    <t>TD38</t>
+  </si>
+  <si>
+    <t>08092012</t>
+  </si>
+  <si>
+    <t>ba@gmail.com</t>
+  </si>
+  <si>
+    <t>เลือกปี (ปีปัจจุบัน -12)</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "แก้ไขข้อมูลสำเร็จ"</t>
+  </si>
+  <si>
+    <t>TD39</t>
+  </si>
+  <si>
+    <t>ดาว</t>
+  </si>
+  <si>
+    <t>ทอง</t>
+  </si>
+  <si>
+    <t>30/19.</t>
+  </si>
+  <si>
+    <t>TD40</t>
+  </si>
+  <si>
+    <t>09092011</t>
+  </si>
+  <si>
+    <t>บวรทัตบวรทัตบวรทัตบวรทัตบวรทั</t>
+  </si>
+  <si>
+    <t>จำปาทองจำปาทองจำปาทองจำปาทองจ</t>
+  </si>
+  <si>
+    <t>30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุรี จ.ราชบุรี รหัสไปรษณีย์ 70000 30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบ</t>
+  </si>
+  <si>
+    <t>bawonthad_61231231211231231-3@gmail.com</t>
+  </si>
+  <si>
+    <t>TD41</t>
+  </si>
+  <si>
+    <t>bawonthadbawonthadbawonthadbaw</t>
+  </si>
+  <si>
+    <t>jumpatongjumpatongjumpatongjum</t>
+  </si>
+  <si>
+    <t>30/9 Moo 10, Chedi Hak Subdistrict,Mueang Ratchaburi District,Ratchaburi Province, postal code 70000</t>
+  </si>
+  <si>
+    <t>bawonthad261231231231231231231@gmail.com</t>
+  </si>
+  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อต้องมีจำนวนตัวอักษร 2-30 ตัวอักษรเท่านั้น"</t>
   </si>
   <si>
-    <t>TD7</t>
-  </si>
-  <si>
-    <t>บวรทัตบวรทัตบวรทัตบวรทัตบวรทัตบ</t>
-  </si>
-  <si>
-    <t>แก้ไขข้อมูลสำเร็จ</t>
-  </si>
-  <si>
-    <t>TD8</t>
-  </si>
-  <si>
-    <t>ดา</t>
-  </si>
-  <si>
-    <t>กรุณากรอกนามสกุล</t>
-  </si>
-  <si>
-    <t>TD9</t>
-  </si>
-  <si>
-    <t>チャンパトン</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องเป็นตัวอักษรภาษาไทยหรือภาษาอังกฤษ และห้ามมีตัวเลขหรือตัวอักษรพิเศษ</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องเป็นภาษาไทยหรือภาษาอังกฤษเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD10</t>
-  </si>
-  <si>
-    <t>จำปาทอง2</t>
-  </si>
-  <si>
-    <t>TD11</t>
-  </si>
-  <si>
-    <t>จำปาทอง.</t>
-  </si>
-  <si>
-    <t>TD12</t>
-  </si>
-  <si>
-    <t>จ</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องมีจำนวนตัวอักษร 2-30 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องมีจำนวนตัวอักษร 2-32 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "นามสกุลต้องมีจำนวนตัวอักษร 2-30 ตัวอักษรเท่านั้น"</t>
   </si>
   <si>
-    <t>TD13</t>
-  </si>
-  <si>
-    <t>จำปาทองจำปาทองจำปาทองจำปาทองจำป</t>
-  </si>
-  <si>
-    <t>TD14</t>
-  </si>
-  <si>
-    <t>กรุณากรอกที่อยู่</t>
-  </si>
-  <si>
-    <t>TD15</t>
-  </si>
-  <si>
-    <t>30/9 ムー 10</t>
-  </si>
-  <si>
-    <t>ที่อยู่ต้องเป็นภาษาไทย ภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ วงเล็บ ( ) ขีดกลาง - จุด . สแลช / และคอมม่า , เท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ที่อยู่ต้องเป็นภาษาไทย ภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ วงเล็บ ( ) ขีดกลาง - จุด . สแลช / และคอมม่า , เท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD16</t>
-  </si>
-  <si>
-    <t>๓๐/๑๙</t>
-  </si>
-  <si>
-    <t>TD17</t>
-  </si>
-  <si>
-    <t>30_19</t>
-  </si>
-  <si>
-    <t>TD18</t>
-  </si>
-  <si>
-    <t>30/9</t>
-  </si>
-  <si>
-    <t>ที่อยู่ต้องมีจำนวนตัวอักษร 5-100 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "ที่อยู่ต้องมีจำนวนตัวอักษร 5-100 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD19</t>
-  </si>
-  <si>
-    <t>30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุรี จ.ราชบุรี รหัสไปรษณีย์ 70000 30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุร</t>
-  </si>
-  <si>
-    <t>ที่อยู่ต้องมีจำนวนตัวอักษร 2-100 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD20</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเบอร์โทร</t>
-  </si>
-  <si>
-    <t>TD21</t>
-  </si>
-  <si>
-    <t>080 843 7940</t>
-  </si>
-  <si>
-    <t>เบอร์โทรห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
-  </si>
-  <si>
-    <t>เบอร์โทรต้องมีจำนวนตัวเลข 10 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD22</t>
-  </si>
-  <si>
-    <t>Tel0808437940</t>
-  </si>
-  <si>
-    <t>TD23</t>
-  </si>
-  <si>
-    <t>0808437940.</t>
-  </si>
-  <si>
-    <t>TD24</t>
-  </si>
-  <si>
-    <t>๐๘๐๘๔๓๗๙๔๐</t>
-  </si>
-  <si>
-    <t>เบอร์โทรต้องเป็นตัวเลขอารบิก และขึ้นต้นด้วยเลข 06 08 09 เท่านั้น</t>
-  </si>
-  <si>
-    <t>ต้องขึ้นต้นด้วยเลข 0 เท่านั้น และไม่มีช่องว่างหรือตัวอักษรใดๆ แทรกระหว่างตัวเลข</t>
-  </si>
-  <si>
-    <t>TD25</t>
-  </si>
-  <si>
-    <t>0708437940</t>
-  </si>
-  <si>
-    <t>TD26</t>
-  </si>
-  <si>
-    <t>080843794</t>
-  </si>
-  <si>
-    <t>TD27</t>
-  </si>
-  <si>
-    <t>08084379400</t>
-  </si>
-  <si>
-    <t>TD28</t>
-  </si>
-  <si>
-    <t>กรุณากรอกอีเมล</t>
-  </si>
-  <si>
-    <t>TD29</t>
-  </si>
-  <si>
-    <t>bawonthad2612</t>
-  </si>
-  <si>
-    <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล ประกอบด้วยตัวอักษรภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ ขีดกลาง - ขีดล่าง _ แอท @ จุด . และห้ามมีช่องว่าง</t>
-  </si>
-  <si>
-    <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล</t>
-  </si>
-  <si>
-    <t>TD30</t>
-  </si>
-  <si>
-    <t>บวรทัต2612@gmail.com</t>
-  </si>
-  <si>
-    <t>TD31</t>
-  </si>
-  <si>
-    <t>bawonthad๒๖๑๒@gmail.com</t>
-  </si>
-  <si>
-    <t>TD32</t>
-  </si>
-  <si>
-    <t>#bawonthad2612@gmail.com</t>
-  </si>
-  <si>
-    <t>TD33</t>
-  </si>
-  <si>
-    <t>bawonthad2612@gmail. com</t>
-  </si>
-  <si>
-    <t>TD34</t>
-  </si>
-  <si>
-    <t>b@gmail.com</t>
-  </si>
-  <si>
-    <t>อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD35</t>
-  </si>
-  <si>
-    <t>bawonthad2612312312312312312311@gmail.com</t>
-  </si>
-  <si>
-    <t>TD36</t>
-  </si>
-  <si>
-    <t>1549900523700</t>
-  </si>
-  <si>
-    <t>เลขบัตรประชาชนไม่สามารถแก้ไขได้</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขบัตรประชาชนไม่สามารถแก้ไขได้"</t>
-  </si>
-  <si>
-    <t>TD37</t>
-  </si>
-  <si>
-    <t>เลือกปี (ปีปัจจุบัน -11)</t>
-  </si>
-  <si>
-    <t>ไม่สามารถแก้ไขข้อมูลได้ จำเป็นต้องมีอายุตั้งแต่ 12 ปีขึ้นไป</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ไม่สามารถแก้ไขข้อมูลได้ จำเป็นต้องมีอายุตั้งแต่ 12 ปีขึ้นไป"</t>
-  </si>
-  <si>
-    <t>TD38</t>
-  </si>
-  <si>
-    <t>08092012</t>
-  </si>
-  <si>
-    <t>ba@gmail.com</t>
-  </si>
-  <si>
-    <t>เลือกปี (ปีปัจจุบัน -12)</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "แก้ไขข้อมูลสำเร็จ"</t>
-  </si>
-  <si>
-    <t>TD39</t>
-  </si>
-  <si>
-    <t>ดาว</t>
-  </si>
-  <si>
-    <t>ทอง</t>
-  </si>
-  <si>
-    <t>30/19.</t>
-  </si>
-  <si>
-    <t>TD40</t>
-  </si>
-  <si>
-    <t>09092011</t>
-  </si>
-  <si>
-    <t>บวรทัตบวรทัตบวรทัตบวรทัตบวรทั</t>
-  </si>
-  <si>
-    <t>จำปาทองจำปาทองจำปาทองจำปาทองจ</t>
-  </si>
-  <si>
-    <t>30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุรี จ.ราชบุรี รหัสไปรษณีย์ 70000 30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบ</t>
-  </si>
-  <si>
-    <t>bawonthad_61231231211231231-3@gmail.com</t>
-  </si>
-  <si>
-    <t>TD41</t>
-  </si>
-  <si>
-    <t>bawonthadbawonthadbawonthadbaw</t>
-  </si>
-  <si>
-    <t>jumpatongjumpatongjumpatongjum</t>
-  </si>
-  <si>
-    <t>30/9 Moo 10, Chedi Hak Subdistrict,Mueang Ratchaburi District,Ratchaburi Province, postal code 70000</t>
-  </si>
-  <si>
-    <t>bawonthad261231231231231231231@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M23" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="N26" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -1372,19 +1372,19 @@
     </row>
     <row r="8" spans="1:20" ht="15.5" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>22</v>
@@ -1411,7 +1411,7 @@
         <v>46</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>37</v>
@@ -1423,24 +1423,24 @@
         <v>16</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.5" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="5" t="s">
@@ -1462,10 +1462,10 @@
         <v>27</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>29</v>
@@ -1482,22 +1482,22 @@
     </row>
     <row r="10" spans="1:20" ht="15.5" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>23</v>
@@ -1518,10 +1518,10 @@
         <v>27</v>
       </c>
       <c r="M10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>37</v>
@@ -1538,22 +1538,22 @@
     </row>
     <row r="11" spans="1:20" ht="15.5" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>23</v>
@@ -1574,10 +1574,10 @@
         <v>27</v>
       </c>
       <c r="M11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>37</v>
@@ -1594,22 +1594,22 @@
     </row>
     <row r="12" spans="1:20" ht="15.5" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>23</v>
@@ -1630,10 +1630,10 @@
         <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>37</v>
@@ -1650,22 +1650,22 @@
     </row>
     <row r="13" spans="1:20" ht="15.5" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>23</v>
@@ -1686,10 +1686,10 @@
         <v>27</v>
       </c>
       <c r="M13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>37</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="14" spans="1:20" ht="15.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -1718,10 +1718,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>23</v>
@@ -1742,10 +1742,10 @@
         <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>37</v>
@@ -1757,12 +1757,12 @@
         <v>16</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -1774,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>22</v>
@@ -1796,10 +1796,10 @@
         <v>27</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>29</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="16" spans="1:20" ht="15.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -1828,13 +1828,13 @@
         <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>24</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>37</v>
@@ -1867,12 +1867,12 @@
         <v>16</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -1884,13 +1884,13 @@
         <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>24</v>
@@ -1908,10 +1908,10 @@
         <v>27</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>37</v>
@@ -1923,12 +1923,12 @@
         <v>16</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -1940,13 +1940,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>24</v>
@@ -1964,10 +1964,10 @@
         <v>27</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>37</v>
@@ -1979,12 +1979,12 @@
         <v>16</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
@@ -1996,13 +1996,13 @@
         <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>24</v>
@@ -2020,10 +2020,10 @@
         <v>27</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>37</v>
@@ -2035,12 +2035,12 @@
         <v>16</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -2052,13 +2052,13 @@
         <v>21</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>24</v>
@@ -2076,10 +2076,10 @@
         <v>27</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>37</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="21" spans="1:18" ht="15.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -2108,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>22</v>
@@ -2130,10 +2130,10 @@
         <v>27</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>29</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="22" spans="1:18" ht="15.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -2162,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>22</v>
@@ -2171,7 +2171,7 @@
         <v>23</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>25</v>
@@ -2186,10 +2186,10 @@
         <v>27</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>37</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="23" spans="1:18" ht="15.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -2218,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>22</v>
@@ -2227,7 +2227,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>34</v>
@@ -2242,10 +2242,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>37</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="24" spans="1:18" ht="15.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>19</v>
@@ -2274,7 +2274,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>22</v>
@@ -2283,7 +2283,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>25</v>
@@ -2298,10 +2298,10 @@
         <v>27</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>37</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="25" spans="1:18" ht="15.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
@@ -2330,7 +2330,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>22</v>
@@ -2339,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>34</v>
@@ -2354,10 +2354,10 @@
         <v>27</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>37</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="26" spans="1:18" ht="15.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
@@ -2386,7 +2386,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>22</v>
@@ -2395,7 +2395,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>25</v>
@@ -2410,10 +2410,10 @@
         <v>27</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>37</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="27" spans="1:18" ht="15.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
@@ -2442,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>22</v>
@@ -2451,7 +2451,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>34</v>
@@ -2466,10 +2466,10 @@
         <v>27</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>29</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="28" spans="1:18" ht="15.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
@@ -2498,7 +2498,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>22</v>
@@ -2507,7 +2507,7 @@
         <v>23</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
@@ -2522,10 +2522,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>29</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="29" spans="1:18" ht="15.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
@@ -2554,7 +2554,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>22</v>
@@ -2576,10 +2576,10 @@
         <v>27</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O29" s="15" t="s">
         <v>29</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="30" spans="1:18" ht="15.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
@@ -2608,7 +2608,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>22</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>20</v>
@@ -2632,10 +2632,10 @@
         <v>27</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>37</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="31" spans="1:18" ht="15.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -2664,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>22</v>
@@ -2679,7 +2679,7 @@
         <v>34</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>20</v>
@@ -2688,10 +2688,10 @@
         <v>27</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>37</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="32" spans="1:18" ht="15.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
@@ -2720,7 +2720,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>22</v>
@@ -2735,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>20</v>
@@ -2744,10 +2744,10 @@
         <v>27</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>37</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="33" spans="1:18" ht="15.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -2776,7 +2776,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>22</v>
@@ -2791,7 +2791,7 @@
         <v>34</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>20</v>
@@ -2800,10 +2800,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>37</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="34" spans="1:18" ht="15.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>19</v>
@@ -2832,7 +2832,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>22</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>20</v>
@@ -2856,10 +2856,10 @@
         <v>27</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>37</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="35" spans="1:18" ht="15.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
@@ -2888,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>22</v>
@@ -2903,7 +2903,7 @@
         <v>34</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>20</v>
@@ -2912,10 +2912,10 @@
         <v>27</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>37</v>
@@ -2927,12 +2927,12 @@
         <v>16</v>
       </c>
       <c r="R35" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -2944,7 +2944,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>22</v>
@@ -2959,7 +2959,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>20</v>
@@ -2968,10 +2968,10 @@
         <v>27</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>37</v>
@@ -2983,12 +2983,12 @@
         <v>16</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>19</v>
@@ -3000,7 +3000,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>22</v>
@@ -3018,16 +3018,16 @@
         <v>26</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>37</v>
@@ -3039,12 +3039,12 @@
         <v>16</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
@@ -3056,7 +3056,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>22</v>
@@ -3077,13 +3077,13 @@
         <v>20</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O38" s="13" t="s">
         <v>37</v>
@@ -3095,12 +3095,12 @@
         <v>16</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -3109,10 +3109,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>22</v>
@@ -3127,19 +3127,19 @@
         <v>34</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>37</v>
@@ -3151,30 +3151,30 @@
         <v>16</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.5" customHeight="1">
       <c r="A40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>24</v>
@@ -3189,13 +3189,13 @@
         <v>20</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O40" s="15" t="s">
         <v>29</v>
@@ -3212,25 +3212,25 @@
     </row>
     <row r="41" spans="1:18" ht="15.5" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="G41" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>24</v>
@@ -3239,7 +3239,7 @@
         <v>34</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>20</v>
@@ -3248,10 +3248,10 @@
         <v>27</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O41" s="15" t="s">
         <v>29</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="42" spans="1:18" ht="15.5" customHeight="1">
       <c r="A42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>24</v>
@@ -3295,7 +3295,7 @@
         <v>25</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>20</v>
@@ -3304,10 +3304,10 @@
         <v>27</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O42" s="15" t="s">
         <v>29</v>
